--- a/COSC368 - 24S2/Labs/Lab 6/Lab 6 Analysis.xlsx
+++ b/COSC368 - 24S2/Labs/Lab 6/Lab 6 Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scott\Desktop\UNI2024\COSC368 - 24S2\Labs\Lab 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AD751B-732A-44B3-A239-CA09140447D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1BE2FA-8699-41B6-A93F-2142A9502113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A27B429A-40F2-488D-BD17-AFCE1BD6BEB2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{A27B429A-40F2-488D-BD17-AFCE1BD6BEB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Static" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -121,14 +121,20 @@
   <si>
     <t>MT</t>
   </si>
+  <si>
+    <t>This study does not tell me anything useful. I don’t think my keys ended up being consistent in size, therefore some keys were harder to select and find than others.</t>
+  </si>
+  <si>
+    <t>This study is limited due to the poor execution of the expirament. If there was a more forceful influenced random layout, perhaps the data would more accurately reflect the hypothesis.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -170,9 +176,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -296,6 +302,70 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.2200568678915136E-2"/>
+                  <c:y val="0.15168327947445875"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'Combined Mean'!$A$2:$A$7</c:f>
@@ -383,6 +453,70 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.2200568678915136E-2"/>
+                  <c:y val="-0.11127091772487976"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'Combined Mean'!$A$2:$A$7</c:f>
@@ -1665,13 +1799,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8632910-32BA-448C-B13A-683EF0EB6C81}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1688,7 +1822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1709,7 +1843,7 @@
         <v>2.1815300000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1730,7 +1864,7 @@
         <v>2.2035800000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1751,7 +1885,7 @@
         <v>1.23732</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1772,7 +1906,7 @@
         <v>1.1554500000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1793,7 +1927,7 @@
         <v>1.30491</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1814,7 +1948,7 @@
         <v>1.8148299999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1835,7 +1969,7 @@
         <v>1.6233</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1856,7 +1990,7 @@
         <v>1.5818800000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1877,7 +2011,7 @@
         <v>1.1928699999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1898,7 +2032,7 @@
         <v>1.1098299999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1919,7 +2053,7 @@
         <v>3.2254399999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1940,7 +2074,7 @@
         <v>2.1748099999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1961,7 +2095,7 @@
         <v>1.6232200000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1982,7 +2116,7 @@
         <v>4.7688600000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -2003,7 +2137,7 @@
         <v>1.2371400000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -2024,7 +2158,7 @@
         <v>1.8823299999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2045,7 +2179,7 @@
         <v>1.8825499999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2066,7 +2200,7 @@
         <v>0.99721000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2087,7 +2221,7 @@
         <v>2.8777300000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -2108,7 +2242,7 @@
         <v>1.4855</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -2129,7 +2263,7 @@
         <v>3.61436</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -2150,7 +2284,7 @@
         <v>1.5450899999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -2171,7 +2305,7 @@
         <v>3.9224200000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -2192,7 +2326,7 @@
         <v>1.8902699999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -2213,7 +2347,7 @@
         <v>1.18994</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -2234,7 +2368,7 @@
         <v>1.53074</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -2255,7 +2389,7 @@
         <v>1.9575499999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2276,7 +2410,7 @@
         <v>1.57389</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -2297,7 +2431,7 @@
         <v>2.1888400000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -2318,7 +2452,7 @@
         <v>1.94356</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2339,7 +2473,7 @@
         <v>0.90709000000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -2360,7 +2494,7 @@
         <v>3.2779099999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2381,7 +2515,7 @@
         <v>1.3793800000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2402,7 +2536,7 @@
         <v>1.5455099999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -2423,7 +2557,7 @@
         <v>1.8081500000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -2453,13 +2587,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C671FFA6-2F86-4830-8C8B-32346A8361AD}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2476,7 +2610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2497,7 +2631,7 @@
         <v>1.30572</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2518,7 +2652,7 @@
         <v>2.0468999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2539,7 +2673,7 @@
         <v>1.2228399999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2560,7 +2694,7 @@
         <v>1.2374700000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2581,7 +2715,7 @@
         <v>1.5151199999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2602,7 +2736,7 @@
         <v>2.6031599999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2623,7 +2757,7 @@
         <v>1.3637699999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2644,7 +2778,7 @@
         <v>1.3190899999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2665,7 +2799,7 @@
         <v>5.80457</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -2686,7 +2820,7 @@
         <v>1.2669699999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2707,7 +2841,7 @@
         <v>2.9850100000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -2728,7 +2862,7 @@
         <v>1.7401500000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2749,7 +2883,7 @@
         <v>4.4412700000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -2770,7 +2904,7 @@
         <v>2.53477</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -2791,7 +2925,7 @@
         <v>4.34192</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -2812,7 +2946,7 @@
         <v>1.7099800000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2833,7 +2967,7 @@
         <v>1.8968800000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2854,7 +2988,7 @@
         <v>3.7725900000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2875,7 +3009,7 @@
         <v>3.0765400000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -2896,7 +3030,7 @@
         <v>1.7401</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -2917,7 +3051,7 @@
         <v>2.5867900000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -2938,7 +3072,7 @@
         <v>3.5028200000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -2959,7 +3093,7 @@
         <v>1.6203299999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -2980,7 +3114,7 @@
         <v>1.3123</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -3001,7 +3135,7 @@
         <v>2.7528800000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -3022,7 +3156,7 @@
         <v>1.79247</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -3043,7 +3177,7 @@
         <v>1.31229</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -3064,7 +3198,7 @@
         <v>3.0825100000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -3085,7 +3219,7 @@
         <v>2.8350999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -3106,7 +3240,7 @@
         <v>1.6652400000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -3127,7 +3261,7 @@
         <v>1.8006800000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -3148,7 +3282,7 @@
         <v>1.5146199999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -3169,7 +3303,7 @@
         <v>3.4057900000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -3190,7 +3324,7 @@
         <v>2.5497399999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -3211,7 +3345,7 @@
         <v>0.93685000000000007</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -3245,9 +3379,9 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3258,7 +3392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5</v>
       </c>
@@ -3269,7 +3403,7 @@
         <v>1.30572</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
@@ -3280,7 +3414,7 @@
         <v>2.0468999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5</v>
       </c>
@@ -3291,7 +3425,7 @@
         <v>1.2228399999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3302,7 +3436,7 @@
         <v>1.2374700000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3313,7 +3447,7 @@
         <v>1.5151199999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3324,7 +3458,7 @@
         <v>2.6031599999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -3335,7 +3469,7 @@
         <v>1.3637699999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -3346,7 +3480,7 @@
         <v>1.3190899999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -3357,7 +3491,7 @@
         <v>5.80457</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
@@ -3368,7 +3502,7 @@
         <v>1.2669699999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4</v>
       </c>
@@ -3379,7 +3513,7 @@
         <v>2.9850100000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
@@ -3390,7 +3524,7 @@
         <v>1.7401500000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -3401,7 +3535,7 @@
         <v>4.4412700000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -3412,7 +3546,7 @@
         <v>2.53477</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -3423,7 +3557,7 @@
         <v>4.34192</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -3434,7 +3568,7 @@
         <v>1.7099800000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3445,7 +3579,7 @@
         <v>1.8968800000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -3456,7 +3590,7 @@
         <v>3.7725900000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -3467,7 +3601,7 @@
         <v>3.0765400000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3478,7 +3612,7 @@
         <v>1.7401</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -3489,7 +3623,7 @@
         <v>2.5867900000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -3500,7 +3634,7 @@
         <v>3.5028200000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -3511,7 +3645,7 @@
         <v>1.6203299999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -3522,7 +3656,7 @@
         <v>1.3123</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -3533,7 +3667,7 @@
         <v>2.7528800000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -3544,7 +3678,7 @@
         <v>1.79247</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -3555,7 +3689,7 @@
         <v>1.31229</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -3566,7 +3700,7 @@
         <v>3.0825100000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -3577,7 +3711,7 @@
         <v>2.8350999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3588,7 +3722,7 @@
         <v>1.6652400000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0</v>
       </c>
@@ -3599,7 +3733,7 @@
         <v>1.8006800000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0</v>
       </c>
@@ -3610,7 +3744,7 @@
         <v>1.5146199999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0</v>
       </c>
@@ -3621,7 +3755,7 @@
         <v>3.4057900000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0</v>
       </c>
@@ -3632,7 +3766,7 @@
         <v>2.5497399999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0</v>
       </c>
@@ -3643,7 +3777,7 @@
         <v>0.93685000000000007</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0</v>
       </c>
@@ -3661,15 +3795,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0122F31F-7F94-4888-8F03-DED016F29EB5}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3680,7 +3814,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3693,7 +3827,7 @@
         <v>1.9700166666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3706,7 +3840,7 @@
         <v>2.2400816666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3719,7 +3853,7 @@
         <v>2.3064800000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3732,7 +3866,7 @@
         <v>3.1162349999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3745,7 +3879,7 @@
         <v>2.4132600000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3758,12 +3892,12 @@
         <v>1.6552016666666667</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -3771,7 +3905,7 @@
         <v>0.1537</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -3779,7 +3913,7 @@
         <v>0.18440000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -3788,7 +3922,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -3796,13 +3930,23 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="3">
         <f>B11+B12*LOG((B13/B14)+1, 2)</f>
         <v>0.48697624762742225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
